--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\workspace\WebDev_DS\django\IoT_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69390021-05F1-4553-B2C2-3324F91A0056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A6D72E-B19E-45A7-AB2B-A2BEA1615C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
